--- a/Project Track sheet.xlsx
+++ b/Project Track sheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBDesign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Checklist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -118,6 +118,78 @@
   </si>
   <si>
     <t>5:30PM to 8:30PM</t>
+  </si>
+  <si>
+    <t>Farmer Register Module Completed,Bidder Register module completed</t>
+  </si>
+  <si>
+    <t>Sending Email integration Completed</t>
+  </si>
+  <si>
+    <t>Admin Farmer register Approval completed</t>
+  </si>
+  <si>
+    <t>Admin Bidder register Approval completed,Admin Claim Approval completed</t>
+  </si>
+  <si>
+    <t>Admin Bid Approval completed,Admin Sell request Approval completed</t>
+  </si>
+  <si>
+    <t>Login Integartion,Responsive Webpage work completed</t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Farmer registration</t>
+  </si>
+  <si>
+    <t>Bidder registration</t>
+  </si>
+  <si>
+    <t>Sold history</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Market Place</t>
+  </si>
+  <si>
+    <t>Farmer Crop sell</t>
+  </si>
+  <si>
+    <t>Bidder Bidding</t>
+  </si>
+  <si>
+    <t>Farmer Insurace registration</t>
+  </si>
+  <si>
+    <t>farmer  Insurance claim</t>
+  </si>
+  <si>
+    <t>Admin Module</t>
+  </si>
+  <si>
+    <t>Forgot Password Email Send</t>
+  </si>
+  <si>
+    <t>Farmer Register Approval</t>
+  </si>
+  <si>
+    <t>Farmer Crop sell Request Approval</t>
+  </si>
+  <si>
+    <t>Farmer Claim Approval</t>
+  </si>
+  <si>
+    <t>Bid Approval</t>
+  </si>
+  <si>
+    <t>Bidder Register Approval</t>
+  </si>
+  <si>
+    <t>CheckList completed</t>
   </si>
 </sst>
 </file>
@@ -458,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,6 +924,103 @@
       <c r="A23" s="2">
         <v>44159</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
@@ -866,12 +1035,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
